--- a/数据整理/stocks/A股/深证主板/002311-海大集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002311-海大集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15232,7 +15233,6 @@
           <t>招商行业领先混合H</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
           <t>86.74</t>
@@ -15264,7 +15264,6 @@
           <t>大成中小盘混合(LOF)C</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr">
         <is>
           <t>73.54</t>
@@ -15280,6 +15279,9402 @@
       </c>
       <c r="H227" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H247"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>260108</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>582.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>30.1662</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城鼎益混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>253.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.4242</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>65.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.5487</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>166.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.3863</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.5623</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>260109</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城内需增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>72.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.4849</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>62.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.2206</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.0822</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>48.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.4336</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>60.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.4320</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>46.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.1781</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>46.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.5912</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.4488</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>41.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.4130</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159928</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.3939</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>57.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.3550</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>33.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.3220</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>260104</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城内需增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>44.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.1715</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>28.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.9636</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>45.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.9263</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>40.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.8981</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.8635</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006252</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>46.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.6112</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.6070</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>180010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华优质增长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>30.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.5790</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011248</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实品质回报混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>75.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>44.26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.5756</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.69</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.5004</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.4697</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.4203</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.4187</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>200008</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长城品牌优选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.4160</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006111</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康弘实3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.3571</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.3531</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>25.67</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.3502</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>65.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.2660</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>21.30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>96.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.2397</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1.2330</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>21.38</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1.2080</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011405</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1.2039</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>070032</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>28.41</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>76.60</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1.1847</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>74.26</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1.1752</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>45.74</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1.1069</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001104</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安新丝路主题股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1.0498</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.9968</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>30.23</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.9764</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>49.20</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.9616</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.9602</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.9241</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004505</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.9200</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.8502</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>12.22</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.8334</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>64.83</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.7782</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.7636</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.7303</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.7103</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008958</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实回报精选股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.7051</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>82.91</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.6953</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.6895</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000020</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.6504</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.6455</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.6064</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.5705</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.5620</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.5606</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>420003</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.5548</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.5416</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006253</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>15.64</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.5396</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.5221</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.5061</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.5018</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.4993</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.4959</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.4912</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.4891</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.4872</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.4831</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.4805</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.4751</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.4636</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>14.24</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>77.54</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.4471</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.4200</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.4137</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.4027</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.4001</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>19.44</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>69.71</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.3927</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.3604</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.3585</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006121</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.3362</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.3258</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>762001</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>76.16</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.3147</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.3086</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.3058</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>070018</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>嘉实回报混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>72.15</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.2982</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>000778</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>鹏华先进制造股票</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.2923</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.2816</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>000532</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>景顺长城优势企业混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.2674</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.2385</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.2364</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.2348</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.2328</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.2251</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.2247</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.2218</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>73.35</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.2020</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>77.08</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006302</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>银华行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>67.67</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>007047</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>长城核心优势混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>96.02</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>72.25</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>008260</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>长城价值优选混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009515</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中欧真益稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>23.14</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>62.62</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009507</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>001650</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>001453</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>001336</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>512600</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>嘉实中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005486</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>平安量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>61.76</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>000743</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>红塔红土盛世普益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>63.83</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>002331</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>泰康安泰回报混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>009054</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>圆信永丰沣泰混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>39.31</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>005519</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>银华混改红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>56.66</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>66.87</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>010199</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>001329</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>006547</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>65.32</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>28.14</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>27.19</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>46.02</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>003799</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>26.99</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>001447</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>天弘惠利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>24.19</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>004734</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>002639</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>天弘价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>001337</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>49.20</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>519050</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>海富通安颐收益混合A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>64.83</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>72.25</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>002398</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>华安安禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>009156</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>海富通富泽混合A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>009508</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>009154</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>海富通富盈混合A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>001454</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>009762</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>76.16</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>001330</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>38.75</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>009155</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>海富通富盈混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>77.71</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>69.71</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>002339</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>海富通安颐收益混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>64.52</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>26.99</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>009157</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>海富通富泽混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>002233</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>005306</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>长信合利混合C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>004735</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>76.23</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>005264</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>国都多策略混合</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>74.44</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>009516</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>中欧真益稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>23.14</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>55.60</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>76.23</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>006343</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际低波动指数A</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>010200</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合C</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>002399</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>华安安禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>005487</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>平安量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>61.76</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>36.95</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>55.60</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>27.19</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H240" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H241" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>006548</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>65.32</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H242" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>36.95</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H243" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>006344</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际低波动指数C</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H244" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H245" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>46.02</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G246" t="n">
+        <v>0</v>
+      </c>
+      <c r="H246" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>010443</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002311-海大集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002311-海大集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24659,7 +24660,6 @@
           <t>东方红启程三年持有期混合型证券投资基金B</t>
         </is>
       </c>
-      <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr">
         <is>
           <t>93.63</t>
@@ -24675,6 +24675,7808 @@
       </c>
       <c r="H247" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H205"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>260108</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>542.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>28.9802</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城鼎益混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>226.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.7819</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>235.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.3408</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>910004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>140.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>9.0934</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011724</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>129.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>8.4072</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>155.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>7.7517</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>50.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.6670</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.5239</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>260109</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城内需增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>62.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.7086</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.6322</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>51.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.8840</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006252</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>49.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.7708</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>57.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.6156</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011248</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实品质回报混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>63.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>67.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.2588</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.0797</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>260104</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城内需增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>38.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.7934</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>44.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.7772</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.6318</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.6230</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.6197</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>35.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4650</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.4184</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.3864</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.3715</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.3653</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>070032</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>25.93</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.2783</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.2708</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.46</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.2558</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.2389</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>23.72</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.2192</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.1458</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.0240</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.0191</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>18.90</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.0187</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>910028</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>17.76</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.8862</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>18.29</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8761</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.8499</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.8002</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006253</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.7983</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.57</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7926</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>17.35</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.7634</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>070006</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实服务增值行业混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6756</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6717</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6527</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.6436</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>76.29</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.6177</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.6092</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5834</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5832</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008958</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实回报精选股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5815</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5778</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.5472</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.5445</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>15.80</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.5404</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>070003</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实稳健混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>66.49</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.5326</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>180010</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华优质增长混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>63.21</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.5286</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004505</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.5044</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4976</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.4839</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.4716</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.4703</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011405</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>银华稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>22.29</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>61.27</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.4614</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>420003</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.4580</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.4374</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.4235</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.4176</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>17.80</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>36.01</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.4041</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.4011</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.4001</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.3937</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.3727</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011626</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>61.41</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.3719</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012069</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>20.07</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.3606</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>75.44</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.3370</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.3361</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.3225</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.3180</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.3122</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.3059</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2987</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2959</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2944</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2841</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>070018</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>嘉实回报混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>69.33</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2735</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2696</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2677</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2629</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.2627</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>160611</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>鹏华优质治理混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005268</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>鹏华优势企业股票</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.2322</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.2288</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.2218</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>000532</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>景顺长城优势企业混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.2207</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1920</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>160627</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>鹏华策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>000778</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>鹏华先进制造股票</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>45.11</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>60.69</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>009515</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中欧真益稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>65.77</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001650</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005486</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>平安量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>62.83</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>000743</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>红塔红土盛世普益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>62.24</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>006302</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>银华行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>62.83</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>002434</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>003957</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>安信量化精选沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>27.20</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>001447</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>天弘惠利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>23.10</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>40.53</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010043</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>002639</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>天弘价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>006712</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>27.05</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>009627</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>28.51</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>010211</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>景顺长城顺鑫回报混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>009154</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>海富通富盈混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>003958</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>安信量化精选沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>68.62</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>68.62</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>002233</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>005519</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>银华混改红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>40.17</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>27.20</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>77.10</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>009155</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>海富通富盈混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>012070</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>20.07</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>006713</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>011627</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>61.41</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>75.44</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>010212</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>景顺长城顺鑫回报混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>48.10</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>27.05</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>009628</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>005264</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>国都多策略混合</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>72.46</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>70.72</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>009516</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>中欧真益稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>46.50</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>005487</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>平安量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>62.83</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>46.50</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>55.77</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>010443</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002311-海大集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002311-海大集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -32461,7 +32462,6 @@
           <t>东方红启程三年持有期混合型证券投资基金B</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
           <t>91.77</t>
@@ -32477,6 +32477,106 @@
       </c>
       <c r="H205" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>204</v>
+      </c>
+      <c r="D2" t="n">
+        <v>162.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>246</v>
+      </c>
+      <c r="D3" t="n">
+        <v>171.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>226</v>
+      </c>
+      <c r="D4" t="n">
+        <v>152.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>162</v>
+      </c>
+      <c r="D5" t="n">
+        <v>125.76</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002311-海大集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002311-海大集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -32490,7 +32491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32501,17 +32502,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -32521,14 +32542,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>204</v>
-      </c>
-      <c r="D2" t="n">
-        <v>162.37</v>
+          <t>260108</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>516.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>31.5333</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -32537,14 +32580,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>246</v>
-      </c>
-      <c r="D3" t="n">
-        <v>171.8</v>
+          <t>162605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城鼎益混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>216.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.7338</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -32553,14 +32618,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>226</v>
-      </c>
-      <c r="D4" t="n">
-        <v>152.09</v>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.3151</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -32569,13 +32656,7443 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>155.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.2718</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>51.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.3013</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>260109</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城内需增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>60.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.0297</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.5311</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159928</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>116.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.0676</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.9417</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>54.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.5441</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011248</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实品质回报混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>60.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.4545</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.2964</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.0531</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.0410</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006345</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城集英成长两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>57.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.0377</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.0120</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>260104</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城内需增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>38.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.9500</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>73.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.8501</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.8386</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>26.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.8374</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>39.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.7834</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.7656</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>62.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.6289</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.4271</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>070032</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.3917</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>41.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.3481</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.3473</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.3232</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>48.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.2119</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.1804</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.1098</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>17.80</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.1072</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.0744</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.0669</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010348</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城泰保三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.0082</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.0039</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.9665</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.9357</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.8753</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.8613</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001222</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华外延成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.8092</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>15.52</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.7558</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>070006</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实服务增值行业混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.7351</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>74.97</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6644</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.6361</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008958</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实回报精选股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.6328</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>78.31</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.6295</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.6281</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5909</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5878</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5654</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.5484</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.5359</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.5278</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.5037</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4990</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011626</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>76.96</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4981</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>420003</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4981</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.4976</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.4930</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.4919</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.4524</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.4309</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.4204</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.4178</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>74.59</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.4117</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.4088</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.4067</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3954</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.3866</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.3662</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>71.26</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.3653</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012069</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.3637</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.3449</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.3444</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.3320</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.3278</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.3249</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>70.07</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.3169</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.3153</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.3053</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>040002</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华安MSCI中国A股指数增强</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>17.41</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.3047</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>070018</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>嘉实回报混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>76.42</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2968</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2856</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>000532</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>景顺长城优势企业混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2840</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2567</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2430</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>39.76</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.2423</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>160611</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>鹏华优质治理混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.2199</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009515</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中欧真益稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>18.73</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>25.28</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005268</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏华优势企业股票</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>512600</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>嘉实中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>000778</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>鹏华先进制造股票</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1765</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>43.99</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1700</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1649</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012387</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004340</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>泰康兴泰回报沪港深混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>55.19</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1287</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>000743</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>红塔红土盛世普益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>762001</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>71.63</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005486</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>平安量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>66.84</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>001650</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>56.92</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>012198</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>国金核心资产一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>39.31</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006712</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>003831</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>建信鑫瑞回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>36.90</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>001447</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>天弘惠利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>27.11</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>004760</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>012388</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>002639</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>天弘价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>010043</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>001932</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>国寿安保灵活优选混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>002233</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>56.92</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>78.31</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>70.07</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>009627</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>27.78</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>012070</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>012199</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>国金核心资产一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>39.31</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>009762</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>011627</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>76.96</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>004761</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>010538</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>国泰惠元混合</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>006713</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>010044</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>63.45</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>27.78</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>006547</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>62.94</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>009628</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>009516</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>中欧真益稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>25.28</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>36.90</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>005487</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>平安量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>66.84</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>39.76</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>162510</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>国联安双力中小板综指 (LOF)</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>006548</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>62.94</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>196</v>
+      </c>
+      <c r="D2" t="n">
+        <v>147.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>204</v>
+      </c>
+      <c r="D3" t="n">
+        <v>162.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>246</v>
+      </c>
+      <c r="D4" t="n">
+        <v>171.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>226</v>
+      </c>
+      <c r="D5" t="n">
+        <v>152.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>162</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>125.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002311-海大集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002311-海大集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -39991,7 +39992,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40002,17 +40003,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -40022,14 +40043,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>196</v>
-      </c>
-      <c r="D2" t="n">
-        <v>147.4</v>
+          <t>260108</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>393.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>23.6211</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -40038,14 +40081,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>204</v>
-      </c>
-      <c r="D3" t="n">
-        <v>162.37</v>
+          <t>162605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城鼎益混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>168.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.7905</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -40054,14 +40119,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>246</v>
-      </c>
-      <c r="D4" t="n">
-        <v>171.8</v>
+          <t>910004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>118.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.4907</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -40070,14 +40157,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>226</v>
-      </c>
-      <c r="D5" t="n">
-        <v>152.09</v>
+          <t>011724</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>110.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.0301</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -40086,13 +40195,5373 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.7844</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>130.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.7466</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>51.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.7413</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260109</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城内需增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>48.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.0183</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>40.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.6760</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>36.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8560</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011248</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实品质回报混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>49.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.8405</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.8045</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6906</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6695</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5527</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006345</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城集英成长两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>43.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5261</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.4965</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>260104</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城内需增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.4600</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.93</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.3214</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.2277</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>41.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.2154</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0939</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>070032</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0419</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9912</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001705</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泓德战略转型股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8809</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8290</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7941</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6757</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>070006</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实服务增值行业混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6542</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6462</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>26.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6202</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001222</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华外延成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5794</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5356</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5068</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>61.30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4979</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4899</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4842</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4803</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4441</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4429</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4376</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4112</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4107</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4011</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3936</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>420003</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3851</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3844</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3843</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011626</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>76.09</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3675</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3659</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008958</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实回报精选股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3614</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3464</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3452</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3139</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3109</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3053</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3032</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2983</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2719</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>070018</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉实回报混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>74.29</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2636</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2636</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2523</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>14.56</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>59.72</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2388</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2305</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2199</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1995</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000532</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>景顺长城优势企业混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>160611</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏华优质治理混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>60.50</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1635</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005268</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏华优势企业股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000778</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鹏华先进制造股票</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>97.82</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>61.22</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>97.33</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001688</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002801</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>泓德泓信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012198</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国金核心资产一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>73.57</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009515</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中欧真益稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002222</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>嘉实新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>25.63</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011781</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>泓德慧享混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012387</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>64.68</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001499</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>国投瑞银新增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004760</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>21.27</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>012021</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>国投瑞银安智混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>012388</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>012022</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>国投瑞银安智混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006712</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>44.60</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>007326</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>国投瑞银新增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>012199</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>国金核心资产一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>73.57</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>67.47</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010151</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>73.34</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>004761</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>21.27</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011782</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>泓德慧享混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011627</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>76.09</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>006713</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>010152</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>004775</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>嘉实新添泽定期开放混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>26.79</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>004916</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>嘉实新添丰定期开放混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>38.84</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>002178</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>009516</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>中欧真益稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>38.84</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>142</v>
+      </c>
+      <c r="D2" t="n">
+        <v>107.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>196</v>
+      </c>
+      <c r="D3" t="n">
+        <v>147.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>204</v>
+      </c>
+      <c r="D4" t="n">
+        <v>162.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>246</v>
+      </c>
+      <c r="D5" t="n">
+        <v>171.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>226</v>
+      </c>
+      <c r="D6" t="n">
+        <v>152.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>162</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>125.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002311-海大集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002311-海大集团.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -45444,7 +45445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45455,17 +45456,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -45475,14 +45496,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>142</v>
-      </c>
-      <c r="D2" t="n">
-        <v>107.94</v>
+          <t>260108</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>452.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>25.8172</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -45491,14 +45534,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>196</v>
-      </c>
-      <c r="D3" t="n">
-        <v>147.4</v>
+          <t>162605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城鼎益混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>195.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.6079</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -45507,14 +45572,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>204</v>
-      </c>
-      <c r="D4" t="n">
-        <v>162.37</v>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>71.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.7659</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -45523,14 +45610,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>246</v>
-      </c>
-      <c r="D5" t="n">
-        <v>171.8</v>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.6383</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -45539,14 +45648,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>226</v>
-      </c>
-      <c r="D6" t="n">
-        <v>152.09</v>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.4835</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -45555,13 +45686,6025 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.4295</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>260109</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城内需增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>56.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.3007</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011248</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实品质回报混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>52.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0098</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>52.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6265</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6002</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>260104</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城内需增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>34.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5963</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012840</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红智华三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>33.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5302</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3388</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3062</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2829</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>33.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2712</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1875</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1461</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>070032</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>24.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1383</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>30.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9625</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8918</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8782</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.59</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8091</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8067</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001222</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华外延成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7559</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6528</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6433</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>070006</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实服务增值行业混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6014</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5854</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>64.51</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5442</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5409</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5100</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>96.52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4871</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>68.95</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4516</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4353</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015210</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4353</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4193</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>420003</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4064</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008958</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实回报精选股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3954</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3881</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3769</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3451</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011626</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3316</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3158</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>76.77</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2999</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002738</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泓德裕康债券A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>39.94</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2956</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2943</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2920</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2728</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2593</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2519</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>070018</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实回报混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2431</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014210</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国投瑞银竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2420</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2338</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2187</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2153</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2033</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1884</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>160611</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏华优质治理混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>63.58</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1802</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>61.33</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005268</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏华优势企业股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1700</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000532</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>景顺长城优势企业混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014352</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>东方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>44.05</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001688</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>26.28</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002222</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>嘉实新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>27.08</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002801</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>泓德泓信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012387</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012198</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国金核心资产一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>26.93</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012388</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001357</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>泓德泓富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>49.43</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004772</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011781</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>泓德慧享混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001422</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>景顺长城安享回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001194</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>景顺长城稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>97.59</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002792</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>景顺长城顺益回报混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>25.41</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012021</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>国投瑞银安智混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008479</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>景顺长城泰申回报混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010478</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>景顺长城泰祥回报混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>25.28</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004760</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>37.36</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>003603</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>景顺长城泰安回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>012022</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>国投瑞银安智混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>43.18</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>012199</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>国金核心资产一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>013472</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>001407</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>景顺长城稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>013471</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>011627</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001922</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>国泰多策略收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011734</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>015484</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>001850</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>003604</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>景顺长城泰安回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>004761</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>001423</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>景顺长城安享回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>014353</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>东方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>44.05</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>011735</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>014211</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>国投瑞银竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>002793</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>景顺长城顺益回报混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>25.41</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>002739</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>泓德裕康债券C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>004252</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>004775</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>嘉实新添泽定期开放混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>39.52</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>银河量化价值混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>68.29</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>71.60</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>012616</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>004773</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>43.18</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>39.52</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>015463</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>015475</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>001376</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>泓德泓富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>49.43</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>002178</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>26.28</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>011782</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>泓德慧享混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>37.36</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>015462</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>013026</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>银河量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>68.29</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>160</v>
+      </c>
+      <c r="D2" t="n">
+        <v>95.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>142</v>
+      </c>
+      <c r="D3" t="n">
+        <v>107.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>196</v>
+      </c>
+      <c r="D4" t="n">
+        <v>147.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>204</v>
+      </c>
+      <c r="D5" t="n">
+        <v>162.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>246</v>
+      </c>
+      <c r="D6" t="n">
+        <v>171.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>226</v>
+      </c>
+      <c r="D7" t="n">
+        <v>152.09</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>162</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>125.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002311-海大集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002311-海大集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="D2" t="n">
-        <v>95.22</v>
+        <v>112.76</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="D3" t="n">
-        <v>107.94</v>
+        <v>95.22</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="D4" t="n">
-        <v>147.4</v>
+        <v>107.94</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D5" t="n">
-        <v>162.37</v>
+        <v>147.4</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="D6" t="n">
-        <v>171.8</v>
+        <v>162.37</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="D7" t="n">
-        <v>152.09</v>
+        <v>171.8</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>226</v>
+      </c>
+      <c r="D8" t="n">
+        <v>152.09</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>162</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>125.76</v>
       </c>
     </row>
@@ -600,6 +617,8330 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H219"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>260108</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>393.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>25.9009</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城鼎益混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>172.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.6411</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.0372</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010730</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华心佳两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>108.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.9425</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>105.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.8197</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.6399</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>42.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.4414</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260109</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城内需增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>50.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.3139</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159928</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>103.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.5158</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.4681</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011783</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泓德睿源三年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>67.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.4533</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.0445</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011248</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实品质回报混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>45.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9102</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006345</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城集英成长两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>45.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6766</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>260104</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城内需增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>30.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6030</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5161</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012839</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红智华三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5013</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003940</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>49.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.4688</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.3174</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.95</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.2458</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010289</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城产业趋势混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>43.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.2436</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1811</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>070032</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0890</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0572</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9743</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9471</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8806</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001705</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泓德战略转型股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8705</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8370</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8217</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7831</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001222</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华外延成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>19.18</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>72.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7595</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>69.51</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6566</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6448</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014585</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华心兴三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6107</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5909</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5659</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015468</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5646</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009661</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>15.04</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5550</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>16.48</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>59.42</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5471</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5413</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>070006</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实服务增值行业混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>13.54</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5375</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4122</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰大农业股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4010</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4000</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3908</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000020</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3741</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011344</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3681</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>420003</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3572</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3380</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>60.18</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3378</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008958</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实回报精选股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3269</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011626</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3159</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010242</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>27.18</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3126</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3047</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2964</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2946</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2932</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2855</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2714</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009852</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>银华品质消费股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2705</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2693</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2683</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2567</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011392</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>平安兴鑫回报一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2314</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>070018</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实回报混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>73.77</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2286</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2124</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007082</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>平安高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2081</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2003</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014043</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1978</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>60.66</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1960</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>160611</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鹏华优质治理混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>59.74</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010243</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>15.02</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1727</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005268</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>鹏华优势企业股票</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1707</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012294</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>泰康优势精选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>工银农业产业股票</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1571</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1565</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>512600</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>嘉实中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>013023</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011977</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>格林研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>014210</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国投瑞银竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001297</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>平安智慧中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005474</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>007083</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>平安高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>015699</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>平安均衡成长2年持有混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>79.24</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009662</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001357</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>泓德泓富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>58.11</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>516810</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华夏中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001688</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>002222</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>嘉实新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>26.64</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>012584</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>南方中国新兴经济9个月持有期混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>014586</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>银华心兴三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>013630</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>嘉实均衡臻选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>015210</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>000556</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>国投瑞银新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>012198</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>国金核心资产一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>77.80</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>68.83</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>002358</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>20.72</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>159616</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>建信中证农牧主题ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011616</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>20.72</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>005475</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>013636</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>国投瑞银策略回报混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>70.02</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>562900</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>易方达中证现代农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>015160</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>南方宝嘉混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010478</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>景顺长城泰祥回报混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>008479</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>景顺长城泰申回报混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>004760</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>28.59</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>012840</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>东方红智华三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>015161</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>南方宝嘉混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>002792</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>景顺长城顺益回报混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>25.52</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>001194</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>景顺长城稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>015572</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>012199</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>国金核心资产一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>77.80</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>013472</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>014047</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>银华盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>000557</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>国投瑞银新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>003603</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>景顺长城泰安回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>25.65</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>013471</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>011978</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>格林研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>013145</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>浙商汇金先进制造混合</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>006712</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>011627</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>25.65</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>010151</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>003604</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>景顺长城泰安回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>006713</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>006883</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>015484</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>011734</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>23.46</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>001407</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>景顺长城稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>010923</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>永赢鑫欣混合</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>010152</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>011735</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>23.46</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>013024</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>002793</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>景顺长城顺益回报混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>25.52</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>013631</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>嘉实均衡臻选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>004761</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>28.59</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>36.24</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>015700</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>平安均衡成长2年持有混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>79.24</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>014211</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>国投瑞银竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>011771</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>国寿安保稳隆混合A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>33.52</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>014649</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>011345</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>012585</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>南方中国新兴经济9个月持有期混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>013590</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>南方比较优势混合A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>013637</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>国投瑞银策略回报混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>70.02</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>015463</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>44.26</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>015588</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>国泰大农业股票C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>013591</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>南方比较优势混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>006882</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>012616</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合A</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>014328</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>64.92</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>36.24</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>014327</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>64.92</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>015475</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>004951</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>申万菱信价值优利混合A</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>55.17</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>001376</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>泓德泓富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>58.11</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>002178</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>信澳量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>信澳量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>016906</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>014650</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>015462</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>014584</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>申万菱信价值优利混合C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>55.17</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>015751</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>011772</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>国寿安保稳隆混合C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>33.52</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6725,7 +15066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12177,7 +20518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19677,7 +28018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27478,7 +35819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -36873,7 +45214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -45503,7 +53844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
